--- a/WIP/Users/LucPT/FAP_TestViewpoint_Logout_v1.0_EN.xlsx
+++ b/WIP/Users/LucPT/FAP_TestViewpoint_Logout_v1.0_EN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin-pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\2015SUMJS01\WIP\Users\LucPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -3014,6 +3014,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3031,27 +3052,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3449,6 +3449,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514613</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="704850"/>
+          <a:ext cx="1886213" cy="1047896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -6132,7 +6181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -6152,14 +6201,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6174,12 +6223,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="104" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6191,12 +6240,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="104" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6205,15 +6254,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6222,11 +6271,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="111"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6249,10 +6298,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="107"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6270,10 +6319,10 @@
       <c r="B10" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="103"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6287,8 +6336,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6296,8 +6345,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="105"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6305,8 +6354,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6314,8 +6363,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6323,8 +6372,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6332,8 +6381,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6341,12 +6390,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6354,6 +6397,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6369,7 +6418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -7801,7 +7850,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7814,6 +7863,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
